--- a/topic_keywords.xlsx
+++ b/topic_keywords.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1752" uniqueCount="1410">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1758" uniqueCount="1408">
   <si>
     <t>en</t>
   </si>
@@ -318,12 +318,15 @@
     <t>ব্যবসা</t>
   </si>
   <si>
-    <t>freeze, suspension</t>
+    <t>suspension</t>
   </si>
   <si>
     <t>স্থগিতাদেশ</t>
   </si>
   <si>
+    <t>freeze</t>
+  </si>
+  <si>
     <t xml:space="preserve">স্থগিত ঘোষণা </t>
   </si>
   <si>
@@ -1356,9 +1359,6 @@
     <t>হাঁস-মুরগি পালন</t>
   </si>
   <si>
-    <t>*Note from Oliver, assuming this is hyphenated word and not two seperate? (believe it could be poultry farming translation)</t>
-  </si>
-  <si>
     <t>পোলট্রি শিল্প</t>
   </si>
   <si>
@@ -1521,7 +1521,7 @@
     <t>labourer</t>
   </si>
   <si>
-    <t>pasture, grazing land</t>
+    <t>pasture</t>
   </si>
   <si>
     <t>চারণভূমি</t>
@@ -1671,9 +1671,6 @@
     <t>সাইক্লোন</t>
   </si>
   <si>
-    <t>*NOTE from Oliver, maybe for these words with similar words/translations we could add them to word bank, ie. cyclone</t>
-  </si>
-  <si>
     <t>season</t>
   </si>
   <si>
@@ -3546,9 +3543,6 @@
     <t>গভর্নরেট</t>
   </si>
   <si>
-    <t>uncertain</t>
-  </si>
-  <si>
     <t>district</t>
   </si>
   <si>
@@ -4074,7 +4068,7 @@
     <t>তেল মন্ত্রণালয়</t>
   </si>
   <si>
-    <t>বিদ্যুৎ, জ্বালানি ও খনিজ সম্পদ মন্ত্রণালয়</t>
+    <t>জ্বালানি ও খনিজ সম্পদ মন্ত্রণালয়</t>
   </si>
   <si>
     <t>Ministry of Justice</t>
@@ -4083,7 +4077,7 @@
     <t>বিচার মন্ত্রণালয়</t>
   </si>
   <si>
-    <t>আইন, বিচার ও সংসদ বিষয়ক মন্ত্রণালয়</t>
+    <t>বিচার ও সংসদ বিষয়ক মন্ত্রণালয়</t>
   </si>
   <si>
     <t>Ministry of Finance</t>
@@ -4116,7 +4110,7 @@
     <t>শিল্প ও খনিজ মন্ত্রণালয়</t>
   </si>
   <si>
-    <t>শিল্প মন্ত্রণালয় + বিদ্যুৎ, জ্বালানি ও খনিজ সম্পদ মন্ত্রণালয়</t>
+    <t>শিল্প মন্ত্রণালয় + বিদ্যুৎ</t>
   </si>
   <si>
     <t>Ministry of Higher Education</t>
@@ -4197,10 +4191,10 @@
     <t>পরিবেশ মন্ত্রণালয়</t>
   </si>
   <si>
-    <t>পরিবেশ, বন ও জলবায়ু পরিবর্তন মন্ত্রণালয়</t>
-  </si>
-  <si>
-    <t>**5 commas still remaining, want to check in about those and one plus sign</t>
+    <t>পরিবেশ</t>
+  </si>
+  <si>
+    <t>বন ও জলবায়ু পরিবর্তন মন্ত্রণালয়</t>
   </si>
   <si>
     <t>Ministry of Planning</t>
@@ -5222,7 +5216,7 @@
       <c r="D57" s="3"/>
     </row>
     <row r="58">
-      <c r="A58" s="2" t="s">
+      <c r="A58" s="5" t="s">
         <v>99</v>
       </c>
       <c r="B58" s="2" t="s">
@@ -5232,161 +5226,161 @@
       <c r="D58" s="3"/>
     </row>
     <row r="59">
-      <c r="A59" s="2" t="s">
-        <v>99</v>
+      <c r="A59" s="5" t="s">
+        <v>101</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
     </row>
     <row r="61">
       <c r="A61" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="3"/>
     </row>
     <row r="62">
       <c r="A62" s="5" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
     </row>
     <row r="63">
       <c r="A63" s="5" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
     </row>
     <row r="64">
       <c r="A64" s="5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
     </row>
     <row r="65">
       <c r="A65" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
     </row>
     <row r="66">
       <c r="A66" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B66" s="3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B68" s="3" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" s="3"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" s="3"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
     </row>
     <row r="71">
       <c r="A71" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" s="3"/>
     </row>
     <row r="72">
       <c r="A72" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
     </row>
     <row r="73">
       <c r="A73" s="5" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
@@ -5421,230 +5415,230 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23">
       <c r="A23" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
   </sheetData>
@@ -5677,100 +5671,100 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -5808,707 +5802,707 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" s="5" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>196</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>195</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
     </row>
     <row r="33">
       <c r="A33" s="5" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
     </row>
     <row r="34">
       <c r="A34" s="5" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
     </row>
     <row r="62">
       <c r="A62" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
     </row>
     <row r="63">
       <c r="A63" s="5" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B63" s="3" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
     </row>
     <row r="70">
       <c r="A70" s="5" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
     </row>
     <row r="71">
       <c r="A71" s="5" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
     </row>
     <row r="72">
       <c r="A72" s="5" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>63</v>
@@ -6518,236 +6512,236 @@
     </row>
     <row r="73">
       <c r="A73" s="5" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
     </row>
     <row r="76">
       <c r="A76" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C76" s="3"/>
     </row>
     <row r="77">
       <c r="A77" s="5" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="B77" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
     </row>
     <row r="78">
       <c r="A78" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B78" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
     </row>
     <row r="79">
       <c r="A79" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B79" s="2" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
     </row>
     <row r="80">
       <c r="A80" s="5" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B80" s="3" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
     </row>
     <row r="81">
       <c r="A81" s="5" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="B81" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
     </row>
     <row r="82">
       <c r="A82" s="5" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
     </row>
     <row r="83">
       <c r="A83" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
     </row>
     <row r="84">
       <c r="A84" s="5" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
     </row>
     <row r="85">
       <c r="A85" s="5" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
     </row>
     <row r="86">
       <c r="A86" s="5" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
     </row>
     <row r="87">
       <c r="A87" s="5" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B93" s="3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="C93" s="3"/>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C94" s="3"/>
     </row>
     <row r="95">
       <c r="A95" s="5" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C95" s="3"/>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="C96" s="3"/>
     </row>
@@ -6786,410 +6780,410 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="5" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="3"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
@@ -7199,14 +7193,14 @@
         <v>81</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="B44" s="2" t="s">
         <v>82</v>
@@ -7216,129 +7210,127 @@
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C45" s="4"/>
       <c r="D45" s="3"/>
     </row>
     <row r="46">
       <c r="A46" s="5" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B46" s="4" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="3"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C56" s="7"/>
-      <c r="D56" s="7" t="s">
-        <v>445</v>
-      </c>
+      <c r="D56" s="7"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>446</v>
@@ -7621,13 +7613,13 @@
         <v>499</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
     </row>
     <row r="86">
-      <c r="A86" s="2" t="s">
+      <c r="A86" s="5" t="s">
         <v>500</v>
       </c>
       <c r="B86" s="2" t="s">
@@ -7944,157 +7936,155 @@
         <v>549</v>
       </c>
       <c r="C117" s="3"/>
-      <c r="D117" s="7" t="s">
-        <v>550</v>
-      </c>
+      <c r="D117" s="7"/>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="B118" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="B118" s="2" t="s">
-        <v>552</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>552</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>553</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>554</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>554</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>555</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>556</v>
       </c>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B121" s="3" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>558</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>559</v>
       </c>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>559</v>
+      </c>
+      <c r="B123" s="9" t="s">
         <v>560</v>
-      </c>
-      <c r="B123" s="9" t="s">
-        <v>561</v>
       </c>
       <c r="C123" s="2"/>
       <c r="D123" s="3"/>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B124" s="3" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C124" s="3"/>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B125" s="5" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="C125" s="3"/>
     </row>
     <row r="126">
       <c r="A126" s="5" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B126" s="5" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="C126" s="3"/>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>564</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>565</v>
       </c>
       <c r="C127" s="3"/>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
+        <v>565</v>
+      </c>
+      <c r="B128" s="2" t="s">
         <v>566</v>
-      </c>
-      <c r="B128" s="2" t="s">
-        <v>567</v>
       </c>
       <c r="C128" s="3"/>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>567</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>568</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>569</v>
       </c>
       <c r="C129" s="3"/>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>569</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>570</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>571</v>
       </c>
       <c r="C130" s="2"/>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="C131" s="3"/>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>572</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>573</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>574</v>
       </c>
       <c r="C132" s="3"/>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>574</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>575</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>576</v>
       </c>
       <c r="C133" s="3"/>
     </row>
@@ -8128,457 +8118,457 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
+        <v>576</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>577</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>578</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>578</v>
+      </c>
+      <c r="B3" s="10" t="s">
         <v>579</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>580</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>580</v>
+      </c>
+      <c r="B4" s="10" t="s">
         <v>581</v>
-      </c>
-      <c r="B4" s="10" t="s">
-        <v>582</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>582</v>
+      </c>
+      <c r="B5" s="10" t="s">
         <v>583</v>
-      </c>
-      <c r="B5" s="10" t="s">
-        <v>584</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>584</v>
+      </c>
+      <c r="B6" s="10" t="s">
         <v>585</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>586</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="11"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B7" s="12" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B8" s="12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
+        <v>588</v>
+      </c>
+      <c r="B9" s="10" t="s">
         <v>589</v>
-      </c>
-      <c r="B9" s="10" t="s">
-        <v>590</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="B12" s="10" t="s">
         <v>591</v>
-      </c>
-      <c r="B12" s="10" t="s">
-        <v>592</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B13" s="10" t="s">
         <v>593</v>
-      </c>
-      <c r="B13" s="10" t="s">
-        <v>594</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B14" s="10" t="s">
         <v>595</v>
-      </c>
-      <c r="B14" s="10" t="s">
-        <v>596</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
+        <v>596</v>
+      </c>
+      <c r="B15" s="10" t="s">
         <v>597</v>
-      </c>
-      <c r="B15" s="10" t="s">
-        <v>598</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B16" s="10" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
+        <v>599</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>600</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>601</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>601</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>602</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>603</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="11"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>604</v>
+      </c>
+      <c r="B20" s="10" t="s">
         <v>605</v>
-      </c>
-      <c r="B20" s="10" t="s">
-        <v>606</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="11"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
+        <v>608</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>609</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>610</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
+        <v>610</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>611</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>612</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
+        <v>613</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>614</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>615</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
+        <v>615</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>616</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>617</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>619</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
+        <v>619</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>620</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>621</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
+        <v>621</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>622</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>623</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
+        <v>625</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>626</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>627</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
+        <v>628</v>
+      </c>
+      <c r="B35" s="2" t="s">
         <v>629</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>630</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>632</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>633</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>634</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>634</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>635</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>636</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>637</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>638</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="3"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>640</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>641</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>641</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>642</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>643</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>644</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>645</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>645</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>646</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>647</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>9</v>
@@ -8588,410 +8578,410 @@
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>648</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>649</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>650</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
     </row>
     <row r="49">
       <c r="A49" s="5" t="s">
+        <v>650</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>651</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>652</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>652</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>653</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>654</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>654</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>655</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>656</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>656</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>657</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>658</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>661</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>662</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>663</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>663</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>664</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>665</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>665</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>666</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>667</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" s="3"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>667</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>668</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>669</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>671</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>672</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>674</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>675</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
+        <v>675</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>676</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>677</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>677</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>678</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>679</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>680</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>681</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>679</v>
+      </c>
+      <c r="B68" s="5" t="s">
         <v>680</v>
-      </c>
-      <c r="B68" s="5" t="s">
-        <v>681</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>682</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>683</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>684</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>684</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>685</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>686</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
     </row>
     <row r="72">
       <c r="A72" s="5" t="s">
+        <v>686</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>687</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>688</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
     </row>
     <row r="73">
       <c r="A73" s="5" t="s">
+        <v>688</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>689</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>690</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
     </row>
     <row r="74">
       <c r="A74" s="5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
     </row>
     <row r="75">
       <c r="A75" s="5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>692</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>693</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>694</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>694</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>695</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>696</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>696</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>697</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>698</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="B79" s="2" t="s">
         <v>699</v>
-      </c>
-      <c r="B79" s="2" t="s">
-        <v>700</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>701</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>702</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>703</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B82" s="3" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>704</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>705</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>706</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>707</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>708</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>709</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>711</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>712</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
@@ -9026,130 +9016,130 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
+        <v>712</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>713</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>714</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>714</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>715</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>716</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>717</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>718</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>719</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>720</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>721</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>722</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
+        <v>723</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>724</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>725</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>727</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>728</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
+        <v>728</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>729</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>730</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
+        <v>730</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>731</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>732</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -9166,1122 +9156,1122 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
+        <v>733</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>734</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>735</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
+        <v>735</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>736</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>737</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
+        <v>737</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>738</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>739</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" s="5" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>740</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>741</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>742</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>743</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>744</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
+        <v>742</v>
+      </c>
+      <c r="B23" s="5" t="s">
         <v>743</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>744</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
+        <v>745</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>746</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>747</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
+        <v>747</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>748</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>749</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>751</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>752</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
+        <v>752</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>753</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>754</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
+        <v>754</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>755</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>756</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>757</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>758</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>760</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>761</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>762</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>763</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>764</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
     <row r="35">
       <c r="A35" s="2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
+        <v>765</v>
+      </c>
+      <c r="B36" s="2" t="s">
         <v>766</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>767</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>768</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>769</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>770</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
+        <v>770</v>
+      </c>
+      <c r="B39" s="2" t="s">
         <v>771</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>772</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B41" s="2" t="s">
         <v>711</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>712</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
+        <v>774</v>
+      </c>
+      <c r="B43" s="2" t="s">
         <v>775</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>776</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>778</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>779</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>780</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
+        <v>780</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>781</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>782</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>783</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>784</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>785</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>785</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>786</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>787</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
+        <v>787</v>
+      </c>
+      <c r="B51" s="2" t="s">
         <v>788</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>789</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>789</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>790</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>791</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>791</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>792</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>793</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" s="3"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
+        <v>794</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>795</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>796</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" s="3"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
+        <v>798</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>799</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>800</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
+        <v>801</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>802</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>803</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
+        <v>803</v>
+      </c>
+      <c r="B61" s="2" t="s">
         <v>804</v>
-      </c>
-      <c r="B61" s="2" t="s">
-        <v>805</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="B62" s="3" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
+        <v>806</v>
+      </c>
+      <c r="B63" s="2" t="s">
         <v>807</v>
-      </c>
-      <c r="B63" s="2" t="s">
-        <v>808</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
+        <v>808</v>
+      </c>
+      <c r="B64" s="2" t="s">
         <v>809</v>
-      </c>
-      <c r="B64" s="2" t="s">
-        <v>810</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="B65" s="3" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>811</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>812</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>813</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
+        <v>814</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>815</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>816</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
+        <v>817</v>
+      </c>
+      <c r="B69" s="2" t="s">
         <v>818</v>
-      </c>
-      <c r="B69" s="2" t="s">
-        <v>819</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>819</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>820</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>821</v>
       </c>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>821</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>822</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>823</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>823</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>824</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>825</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>825</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>826</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>827</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
     </row>
     <row r="75">
       <c r="A75" s="5" t="s">
+        <v>828</v>
+      </c>
+      <c r="B75" s="2" t="s">
         <v>829</v>
-      </c>
-      <c r="B75" s="2" t="s">
-        <v>830</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>830</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>831</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>832</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>833</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>834</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>835</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>836</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>837</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>838</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>838</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>839</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>840</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
+        <v>841</v>
+      </c>
+      <c r="B83" s="2" t="s">
         <v>842</v>
-      </c>
-      <c r="B83" s="2" t="s">
-        <v>843</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
+        <v>843</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>844</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>845</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
+        <v>845</v>
+      </c>
+      <c r="B85" s="2" t="s">
         <v>846</v>
-      </c>
-      <c r="B85" s="2" t="s">
-        <v>847</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
+        <v>847</v>
+      </c>
+      <c r="B86" s="2" t="s">
         <v>848</v>
-      </c>
-      <c r="B86" s="2" t="s">
-        <v>849</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
+        <v>849</v>
+      </c>
+      <c r="B87" s="2" t="s">
         <v>850</v>
-      </c>
-      <c r="B87" s="2" t="s">
-        <v>851</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
     </row>
     <row r="88">
       <c r="A88" s="2" t="s">
+        <v>851</v>
+      </c>
+      <c r="B88" s="2" t="s">
         <v>852</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>853</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
     </row>
     <row r="89">
       <c r="A89" s="2" t="s">
+        <v>853</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>854</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>855</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
+        <v>855</v>
+      </c>
+      <c r="B90" s="2" t="s">
         <v>856</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>857</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
+        <v>759</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>760</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>761</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
+        <v>858</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>859</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>860</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>860</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>861</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>862</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
+        <v>862</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>863</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>864</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3"/>
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>865</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>866</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>867</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>868</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
+        <v>868</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>869</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>870</v>
       </c>
       <c r="C98" s="2"/>
       <c r="D98" s="3"/>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>871</v>
+        <v>870</v>
       </c>
       <c r="C99" s="2"/>
       <c r="D99" s="3"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>871</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>872</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>873</v>
       </c>
       <c r="C100" s="2"/>
       <c r="D100" s="3"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>872</v>
+        <v>871</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>875</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>876</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>876</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>877</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>878</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>878</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>879</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>880</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>880</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>881</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>882</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>882</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>883</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>884</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>885</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>886</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>886</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>887</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>888</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
-        <v>889</v>
+        <v>888</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>889</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>890</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>891</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
+        <v>891</v>
+      </c>
+      <c r="B111" s="2" t="s">
         <v>892</v>
-      </c>
-      <c r="B111" s="2" t="s">
-        <v>893</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>893</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>894</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>895</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
     </row>
     <row r="113">
       <c r="A113" s="5" t="s">
+        <v>895</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>896</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>897</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
     </row>
     <row r="114">
       <c r="A114" s="5" t="s">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>898</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>899</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>900</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>900</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>901</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>902</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>902</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>903</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>904</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>903</v>
+        <v>902</v>
       </c>
       <c r="B118" s="3" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>905</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>906</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>907</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>907</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>908</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>909</v>
       </c>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>909</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>910</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>911</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>911</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>912</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>913</v>
       </c>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>913</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>914</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>915</v>
       </c>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>915</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>916</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>917</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>917</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>918</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>919</v>
       </c>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>920</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>921</v>
       </c>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
@@ -10298,120 +10288,120 @@
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>923</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>924</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>925</v>
       </c>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>925</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>926</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>927</v>
       </c>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
+        <v>927</v>
+      </c>
+      <c r="B132" s="2" t="s">
         <v>928</v>
-      </c>
-      <c r="B132" s="2" t="s">
-        <v>929</v>
       </c>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
     </row>
     <row r="133">
       <c r="A133" s="5" t="s">
+        <v>929</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>930</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>931</v>
       </c>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>931</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>932</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>933</v>
       </c>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>933</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>934</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>935</v>
       </c>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
+        <v>935</v>
+      </c>
+      <c r="B136" s="2" t="s">
         <v>936</v>
-      </c>
-      <c r="B136" s="2" t="s">
-        <v>937</v>
       </c>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>937</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>938</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>939</v>
       </c>
       <c r="C137" s="2"/>
       <c r="D137" s="3"/>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>938</v>
+        <v>937</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>940</v>
+        <v>939</v>
       </c>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
     </row>
     <row r="140">
       <c r="A140" s="1" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="B140" s="3" t="s">
-        <v>941</v>
+        <v>940</v>
       </c>
     </row>
   </sheetData>
@@ -10444,160 +10434,160 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>942</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>943</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
+        <v>943</v>
+      </c>
+      <c r="B3" s="2" t="s">
         <v>944</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>945</v>
       </c>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
+        <v>945</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>946</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>947</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
+        <v>639</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>640</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>641</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" s="2" t="s">
+        <v>617</v>
+      </c>
+      <c r="B6" s="2" t="s">
         <v>618</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>619</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
+        <v>919</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>920</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>921</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
+        <v>947</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>948</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>949</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>948</v>
+        <v>947</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>885</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>886</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>951</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>952</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>953</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>954</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>955</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>956</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>957</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>958</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>959</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>960</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" s="2" t="s">
+        <v>960</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>961</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>962</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
+        <v>962</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>963</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>964</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
@@ -10614,167 +10604,167 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
+        <v>964</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>965</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>966</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
+        <v>966</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>967</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>968</v>
       </c>
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>968</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>969</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>970</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" s="5" t="s">
+        <v>970</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>971</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>972</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
+        <v>972</v>
+      </c>
+      <c r="B23" s="2" t="s">
         <v>973</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>974</v>
       </c>
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="C24" s="3"/>
       <c r="D24" s="3"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
+        <v>975</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>976</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>977</v>
       </c>
       <c r="C25" s="3"/>
       <c r="D25" s="3"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
+        <v>977</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>978</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>979</v>
       </c>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
+        <v>979</v>
+      </c>
+      <c r="B27" s="2" t="s">
         <v>980</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>981</v>
       </c>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
     <row r="28">
       <c r="A28" s="13" t="s">
+        <v>981</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>982</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>983</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="7"/>
     </row>
     <row r="29">
       <c r="A29" s="13" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
     <row r="30">
       <c r="A30" s="6" t="s">
+        <v>984</v>
+      </c>
+      <c r="B30" s="2" t="s">
         <v>985</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>986</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
     <row r="31">
       <c r="A31" s="13" t="s">
+        <v>986</v>
+      </c>
+      <c r="B31" s="2" t="s">
         <v>987</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>988</v>
       </c>
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32">
       <c r="A32" s="6" t="s">
+        <v>988</v>
+      </c>
+      <c r="B32" s="2" t="s">
         <v>989</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>990</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
     </row>
     <row r="33">
       <c r="A33" s="6" t="s">
-        <v>946</v>
+        <v>945</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
     </row>
     <row r="34">
       <c r="A34" s="6" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
     <row r="35">
       <c r="A35" s="6" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>521</v>
@@ -10784,1077 +10774,1077 @@
     </row>
     <row r="36">
       <c r="A36" s="6" t="s">
+        <v>992</v>
+      </c>
+      <c r="B36" s="3" t="s">
         <v>993</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>994</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
+        <v>994</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>995</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>996</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
+        <v>996</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>997</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>998</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
+        <v>999</v>
+      </c>
+      <c r="B40" s="2" t="s">
         <v>1000</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>1001</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B44" s="2" t="s">
         <v>1005</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>1006</v>
       </c>
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>1007</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>1008</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
     <row r="46">
       <c r="A46" s="2" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>1009</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>1010</v>
       </c>
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
     <row r="47">
       <c r="A47" s="5" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B47" s="2" t="s">
         <v>1011</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>1012</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B48" s="2" t="s">
         <v>1013</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>1014</v>
       </c>
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B49" s="2" t="s">
         <v>1015</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>1016</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B50" s="2" t="s">
         <v>1017</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>1018</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B52" s="2" t="s">
         <v>1020</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>1021</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B53" s="2" t="s">
         <v>1022</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>1023</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B54" s="2" t="s">
         <v>1024</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>1025</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
     </row>
     <row r="55">
       <c r="A55" s="5" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B55" s="2" t="s">
         <v>1026</v>
-      </c>
-      <c r="B55" s="2" t="s">
-        <v>1027</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B56" s="2" t="s">
         <v>1028</v>
-      </c>
-      <c r="B56" s="2" t="s">
-        <v>1029</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B57" s="2" t="s">
         <v>1030</v>
-      </c>
-      <c r="B57" s="2" t="s">
-        <v>1031</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
     </row>
     <row r="58">
       <c r="A58" s="5" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B58" s="2" t="s">
         <v>1032</v>
-      </c>
-      <c r="B58" s="2" t="s">
-        <v>1033</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B59" s="2" t="s">
         <v>1034</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>1035</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
     </row>
     <row r="60">
       <c r="A60" s="5" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B60" s="2" t="s">
         <v>1036</v>
-      </c>
-      <c r="B60" s="2" t="s">
-        <v>1037</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
     </row>
     <row r="61">
       <c r="A61" s="5" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>1039</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>1040</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
     </row>
     <row r="65">
       <c r="A65" s="5" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B65" s="2" t="s">
         <v>1043</v>
-      </c>
-      <c r="B65" s="2" t="s">
-        <v>1044</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B66" s="2" t="s">
         <v>1045</v>
-      </c>
-      <c r="B66" s="2" t="s">
-        <v>1046</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B67" s="2" t="s">
         <v>1047</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>1048</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
     </row>
     <row r="68">
       <c r="A68" s="5" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B68" s="2" t="s">
         <v>1049</v>
-      </c>
-      <c r="B68" s="2" t="s">
-        <v>1050</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B70" s="2" t="s">
         <v>1052</v>
-      </c>
-      <c r="B70" s="2" t="s">
-        <v>1053</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="B71" s="2" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B72" s="2" t="s">
         <v>1055</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>1056</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B73" s="2" t="s">
         <v>1057</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>1058</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
     </row>
     <row r="74">
       <c r="A74" s="5" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B74" s="5" t="s">
         <v>1059</v>
-      </c>
-      <c r="B74" s="5" t="s">
-        <v>1060</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
     </row>
     <row r="75">
       <c r="A75" s="5" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B75" s="5" t="s">
         <v>1061</v>
-      </c>
-      <c r="B75" s="5" t="s">
-        <v>1062</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B76" s="2" t="s">
         <v>1063</v>
-      </c>
-      <c r="B76" s="2" t="s">
-        <v>1064</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B77" s="2" t="s">
         <v>1065</v>
-      </c>
-      <c r="B77" s="2" t="s">
-        <v>1066</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B78" s="2" t="s">
         <v>1067</v>
-      </c>
-      <c r="B78" s="2" t="s">
-        <v>1068</v>
       </c>
       <c r="C78" s="3"/>
       <c r="D78" s="3"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="B79" s="3" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>1070</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>1071</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B81" s="2" t="s">
         <v>1072</v>
-      </c>
-      <c r="B81" s="2" t="s">
-        <v>1073</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" s="3"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B82" s="2" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" s="3"/>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="B83" s="3" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="3"/>
     </row>
     <row r="84">
       <c r="A84" s="6" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B84" s="2" t="s">
         <v>1076</v>
-      </c>
-      <c r="B84" s="2" t="s">
-        <v>1077</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" s="3"/>
     </row>
     <row r="85">
       <c r="A85" s="6" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
     </row>
     <row r="86">
       <c r="A86" s="14" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
     </row>
     <row r="87">
       <c r="A87" s="5" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B87" s="10" t="s">
         <v>1080</v>
-      </c>
-      <c r="B87" s="10" t="s">
-        <v>1081</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
     </row>
     <row r="88">
       <c r="A88" s="6" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="B88" s="2" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
     </row>
     <row r="89">
       <c r="A89" s="6" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B89" s="2" t="s">
         <v>1083</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>1084</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
     </row>
     <row r="90">
       <c r="A90" s="13" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B90" s="5" t="s">
         <v>1085</v>
-      </c>
-      <c r="B90" s="5" t="s">
-        <v>1086</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
     </row>
     <row r="91">
       <c r="A91" s="6" t="s">
+        <v>1086</v>
+      </c>
+      <c r="B91" s="2" t="s">
         <v>1087</v>
-      </c>
-      <c r="B91" s="2" t="s">
-        <v>1088</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
     </row>
     <row r="92">
       <c r="A92" s="6" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B92" s="2" t="s">
         <v>1089</v>
-      </c>
-      <c r="B92" s="2" t="s">
-        <v>1090</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
     </row>
     <row r="93">
       <c r="A93" s="6" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B93" s="2" t="s">
         <v>1091</v>
-      </c>
-      <c r="B93" s="2" t="s">
-        <v>1092</v>
       </c>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
     </row>
     <row r="94">
       <c r="A94" s="6" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="B94" s="3" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
     </row>
     <row r="95">
       <c r="A95" s="6" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B95" s="2" t="s">
         <v>1094</v>
-      </c>
-      <c r="B95" s="2" t="s">
-        <v>1095</v>
       </c>
       <c r="C95" s="3"/>
       <c r="D95" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" s="6" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B96" s="2" t="s">
         <v>1096</v>
-      </c>
-      <c r="B96" s="2" t="s">
-        <v>1097</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
     </row>
     <row r="97">
       <c r="A97" s="6" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B97" s="2" t="s">
         <v>1098</v>
-      </c>
-      <c r="B97" s="2" t="s">
-        <v>1099</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
     </row>
     <row r="98">
       <c r="A98" s="6" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>1100</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>1101</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
     </row>
     <row r="99">
       <c r="A99" s="6" t="s">
+        <v>1101</v>
+      </c>
+      <c r="B99" s="2" t="s">
         <v>1102</v>
-      </c>
-      <c r="B99" s="2" t="s">
-        <v>1103</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B100" s="2" t="s">
         <v>1104</v>
-      </c>
-      <c r="B100" s="2" t="s">
-        <v>1105</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B101" s="2" t="s">
         <v>1106</v>
-      </c>
-      <c r="B101" s="2" t="s">
-        <v>1107</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B102" s="2" t="s">
         <v>1108</v>
-      </c>
-      <c r="B102" s="2" t="s">
-        <v>1109</v>
       </c>
       <c r="C102" s="3"/>
       <c r="D102" s="3"/>
     </row>
     <row r="103">
       <c r="A103" s="2" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B103" s="2" t="s">
         <v>1110</v>
-      </c>
-      <c r="B103" s="2" t="s">
-        <v>1111</v>
       </c>
       <c r="C103" s="3"/>
       <c r="D103" s="3"/>
     </row>
     <row r="104">
       <c r="A104" s="2" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B104" s="2" t="s">
         <v>1112</v>
-      </c>
-      <c r="B104" s="2" t="s">
-        <v>1113</v>
       </c>
       <c r="C104" s="3"/>
       <c r="D104" s="3"/>
     </row>
     <row r="105">
       <c r="A105" s="2" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B105" s="2" t="s">
         <v>1114</v>
-      </c>
-      <c r="B105" s="2" t="s">
-        <v>1115</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
     </row>
     <row r="106">
       <c r="A106" s="2" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B106" s="2" t="s">
         <v>1116</v>
-      </c>
-      <c r="B106" s="2" t="s">
-        <v>1117</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
     </row>
     <row r="107">
       <c r="A107" s="2" t="s">
+        <v>1117</v>
+      </c>
+      <c r="B107" s="2" t="s">
         <v>1118</v>
-      </c>
-      <c r="B107" s="2" t="s">
-        <v>1119</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
+        <v>726</v>
+      </c>
+      <c r="B108" s="2" t="s">
         <v>727</v>
-      </c>
-      <c r="B108" s="2" t="s">
-        <v>728</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
     </row>
     <row r="109">
       <c r="A109" s="2" t="s">
+        <v>636</v>
+      </c>
+      <c r="B109" s="2" t="s">
         <v>637</v>
-      </c>
-      <c r="B109" s="2" t="s">
-        <v>638</v>
       </c>
       <c r="C109" s="2"/>
       <c r="D109" s="3"/>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C111" s="3"/>
       <c r="D111" s="3"/>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>1121</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>1122</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="5" t="s">
+        <v>1122</v>
+      </c>
+      <c r="B113" s="2" t="s">
         <v>1123</v>
-      </c>
-      <c r="B113" s="2" t="s">
-        <v>1124</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
     </row>
     <row r="114">
       <c r="A114" s="5" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="B115" s="2" t="s">
         <v>1126</v>
-      </c>
-      <c r="B115" s="2" t="s">
-        <v>1127</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="B116" s="2" t="s">
         <v>1128</v>
-      </c>
-      <c r="B116" s="2" t="s">
-        <v>1129</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B117" s="2" t="s">
         <v>1130</v>
-      </c>
-      <c r="B117" s="2" t="s">
-        <v>1131</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>1132</v>
+      </c>
+      <c r="B119" s="2" t="s">
         <v>1133</v>
-      </c>
-      <c r="B119" s="2" t="s">
-        <v>1134</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B120" s="2" t="s">
         <v>1135</v>
-      </c>
-      <c r="B120" s="2" t="s">
-        <v>1136</v>
       </c>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
+        <v>1136</v>
+      </c>
+      <c r="B121" s="2" t="s">
         <v>1137</v>
-      </c>
-      <c r="B121" s="2" t="s">
-        <v>1138</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
+        <v>1138</v>
+      </c>
+      <c r="B122" s="2" t="s">
         <v>1139</v>
-      </c>
-      <c r="B122" s="2" t="s">
-        <v>1140</v>
       </c>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
+        <v>1140</v>
+      </c>
+      <c r="B123" s="2" t="s">
         <v>1141</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>1142</v>
       </c>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
+        <v>1142</v>
+      </c>
+      <c r="B124" s="2" t="s">
         <v>1143</v>
-      </c>
-      <c r="B124" s="2" t="s">
-        <v>1144</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
+        <v>1144</v>
+      </c>
+      <c r="B125" s="2" t="s">
         <v>1145</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>1146</v>
       </c>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B126" s="2" t="s">
         <v>1147</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>1148</v>
       </c>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
+        <v>1148</v>
+      </c>
+      <c r="B127" s="2" t="s">
         <v>1149</v>
-      </c>
-      <c r="B127" s="2" t="s">
-        <v>1150</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
+        <v>1151</v>
+      </c>
+      <c r="B129" s="2" t="s">
         <v>1152</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>1153</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
+        <v>1153</v>
+      </c>
+      <c r="B130" s="2" t="s">
         <v>1154</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>1155</v>
       </c>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
+        <v>1155</v>
+      </c>
+      <c r="B131" s="2" t="s">
         <v>1156</v>
-      </c>
-      <c r="B131" s="2" t="s">
-        <v>1157</v>
       </c>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="B132" s="3" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
+        <v>1158</v>
+      </c>
+      <c r="B133" s="2" t="s">
         <v>1159</v>
-      </c>
-      <c r="B133" s="2" t="s">
-        <v>1160</v>
       </c>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
+        <v>1160</v>
+      </c>
+      <c r="B134" s="2" t="s">
         <v>1161</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>1162</v>
       </c>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
+        <v>1162</v>
+      </c>
+      <c r="B135" s="2" t="s">
         <v>1163</v>
-      </c>
-      <c r="B135" s="2" t="s">
-        <v>1164</v>
       </c>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="C136" s="3"/>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
+        <v>1165</v>
+      </c>
+      <c r="B137" s="2" t="s">
         <v>1166</v>
-      </c>
-      <c r="B137" s="2" t="s">
-        <v>1167</v>
       </c>
       <c r="C137" s="3"/>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
+        <v>1167</v>
+      </c>
+      <c r="B138" s="2" t="s">
         <v>1168</v>
-      </c>
-      <c r="B138" s="2" t="s">
-        <v>1169</v>
       </c>
       <c r="C138" s="3"/>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
+        <v>1169</v>
+      </c>
+      <c r="B139" s="2" t="s">
         <v>1170</v>
-      </c>
-      <c r="B139" s="2" t="s">
-        <v>1171</v>
       </c>
       <c r="C139" s="3"/>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C140" s="3"/>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
+        <v>670</v>
+      </c>
+      <c r="B141" s="2" t="s">
         <v>671</v>
-      </c>
-      <c r="B141" s="2" t="s">
-        <v>672</v>
       </c>
       <c r="C141" s="3"/>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
+        <v>673</v>
+      </c>
+      <c r="B142" s="2" t="s">
         <v>674</v>
-      </c>
-      <c r="B142" s="2" t="s">
-        <v>675</v>
       </c>
       <c r="C142" s="3"/>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="C143" s="3"/>
     </row>
@@ -11888,442 +11878,440 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C2" s="3"/>
       <c r="D2" s="3"/>
     </row>
     <row r="3">
       <c r="A3" s="2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="C3" s="3"/>
-      <c r="D3" s="3" t="s">
-        <v>1175</v>
-      </c>
+      <c r="D3" s="3"/>
     </row>
     <row r="4">
       <c r="A4" s="2" t="s">
-        <v>1176</v>
+        <v>1174</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>1177</v>
+        <v>1175</v>
       </c>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
     </row>
     <row r="5">
       <c r="A5" s="2" t="s">
-        <v>1178</v>
+        <v>1176</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>1179</v>
+        <v>1177</v>
       </c>
       <c r="C5" s="3"/>
       <c r="D5" s="3"/>
     </row>
     <row r="6">
       <c r="A6" s="5" t="s">
-        <v>1180</v>
+        <v>1178</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>1181</v>
+        <v>1179</v>
       </c>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
     </row>
     <row r="7">
       <c r="A7" s="2" t="s">
-        <v>1182</v>
+        <v>1180</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>1183</v>
+        <v>1181</v>
       </c>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
     </row>
     <row r="8">
       <c r="A8" s="2" t="s">
-        <v>1184</v>
+        <v>1182</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9">
       <c r="A9" s="2" t="s">
-        <v>1186</v>
+        <v>1184</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>1187</v>
+        <v>1185</v>
       </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10">
       <c r="A10" s="2" t="s">
-        <v>1188</v>
+        <v>1186</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1189</v>
+        <v>1187</v>
       </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11">
       <c r="A11" s="2" t="s">
-        <v>1190</v>
+        <v>1188</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1191</v>
+        <v>1189</v>
       </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12">
       <c r="A12" s="2" t="s">
-        <v>1192</v>
+        <v>1190</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>1193</v>
+        <v>1191</v>
       </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13">
       <c r="A13" s="2" t="s">
-        <v>1194</v>
+        <v>1192</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>1195</v>
+        <v>1193</v>
       </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14">
       <c r="A14" s="2" t="s">
-        <v>1196</v>
+        <v>1194</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15">
       <c r="A15" s="5" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>1197</v>
+        <v>1195</v>
       </c>
       <c r="C15" s="3"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="s">
-        <v>1198</v>
+        <v>1196</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>1199</v>
+        <v>1197</v>
       </c>
       <c r="C16" s="3"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17">
       <c r="A17" s="2" t="s">
-        <v>1200</v>
+        <v>1198</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>1201</v>
+        <v>1199</v>
       </c>
       <c r="C17" s="3"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18">
       <c r="A18" s="2" t="s">
-        <v>1202</v>
+        <v>1200</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>1203</v>
+        <v>1201</v>
       </c>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
     <row r="19">
       <c r="A19" s="2" t="s">
-        <v>1204</v>
+        <v>1202</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>1205</v>
+        <v>1203</v>
       </c>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
     <row r="20">
       <c r="A20" s="2" t="s">
-        <v>1206</v>
+        <v>1204</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>1207</v>
+        <v>1205</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" s="3"/>
     </row>
     <row r="21">
       <c r="A21" s="2" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B21" s="2" t="s">
         <v>1206</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>1208</v>
       </c>
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
     <row r="22">
       <c r="A22" s="2" t="s">
-        <v>1209</v>
+        <v>1207</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>1210</v>
+        <v>1208</v>
       </c>
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
     <row r="23">
       <c r="A23" s="2" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>1212</v>
+        <v>1210</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="3"/>
     </row>
     <row r="24">
       <c r="A24" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B24" s="5" t="s">
         <v>1211</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>1213</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="3"/>
     </row>
     <row r="25">
       <c r="A25" s="2" t="s">
-        <v>1211</v>
+        <v>1209</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>1214</v>
+        <v>1212</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" s="3"/>
     </row>
     <row r="26">
       <c r="A26" s="2" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B26" s="3" t="s">
         <v>1211</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>1213</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" s="3"/>
     </row>
     <row r="27">
       <c r="A27" s="2" t="s">
-        <v>1215</v>
+        <v>1213</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1216</v>
+        <v>1214</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" s="3"/>
     </row>
     <row r="28">
       <c r="A28" s="2" t="s">
+        <v>1213</v>
+      </c>
+      <c r="B28" s="2" t="s">
         <v>1215</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>1217</v>
       </c>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
     <row r="29">
       <c r="A29" s="2" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
     <row r="30">
       <c r="A30" s="2" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
     <row r="31">
       <c r="A31" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" s="3"/>
     </row>
     <row r="32">
       <c r="A32" s="2" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>1185</v>
+        <v>1183</v>
       </c>
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
     </row>
     <row r="33">
       <c r="A33" s="2" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
     </row>
     <row r="34">
       <c r="A34" s="2" t="s">
+        <v>750</v>
+      </c>
+      <c r="B34" s="2" t="s">
         <v>751</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>752</v>
       </c>
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
     <row r="35">
       <c r="A35" s="5" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
     <row r="36">
       <c r="A36" s="2" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
     <row r="37">
       <c r="A37" s="2" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
     <row r="38">
       <c r="A38" s="2" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
     </row>
     <row r="39">
       <c r="A39" s="2" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
     </row>
     <row r="40">
       <c r="A40" s="2" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
     </row>
     <row r="41">
       <c r="A41" s="2" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
     </row>
     <row r="42">
       <c r="A42" s="2" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
     </row>
     <row r="43">
       <c r="A43" s="2" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
     </row>
     <row r="44">
       <c r="A44" s="2" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="3"/>
     </row>
     <row r="45">
       <c r="A45" s="2" t="s">
+        <v>1238</v>
+      </c>
+      <c r="B45" s="2" t="s">
         <v>1240</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>1242</v>
       </c>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
@@ -12340,17 +12328,17 @@
     </row>
     <row r="47">
       <c r="A47" s="2" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
     </row>
     <row r="48">
       <c r="A48" s="2" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B48" s="2" t="s">
         <v>92</v>
@@ -12360,467 +12348,467 @@
     </row>
     <row r="49">
       <c r="A49" s="2" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
     </row>
     <row r="50">
       <c r="A50" s="2" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
     </row>
     <row r="51">
       <c r="A51" s="2" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
     </row>
     <row r="52">
       <c r="A52" s="2" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
     </row>
     <row r="53">
       <c r="A53" s="2" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
     </row>
     <row r="54">
       <c r="A54" s="2" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
     </row>
     <row r="55">
       <c r="A55" s="2" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
     </row>
     <row r="56">
       <c r="A56" s="2" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
     </row>
     <row r="57">
       <c r="A57" s="2" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
     </row>
     <row r="58">
       <c r="A58" s="2" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
     </row>
     <row r="59">
       <c r="A59" s="2" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
     </row>
     <row r="60">
       <c r="A60" s="2" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
     </row>
     <row r="61">
       <c r="A61" s="2" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" s="3"/>
     </row>
     <row r="62">
       <c r="A62" s="2" t="s">
+        <v>1267</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>1269</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>1271</v>
       </c>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
     </row>
     <row r="63">
       <c r="A63" s="2" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="B63" s="2" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
     </row>
     <row r="64">
       <c r="A64" s="2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="B64" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="C64" s="3"/>
       <c r="D64" s="3"/>
     </row>
     <row r="65">
       <c r="A65" s="2" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="B65" s="2" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="C65" s="3"/>
       <c r="D65" s="3"/>
     </row>
     <row r="66">
       <c r="A66" s="2" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="C66" s="3"/>
       <c r="D66" s="3"/>
     </row>
     <row r="67">
       <c r="A67" s="2" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="B67" s="3" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="C67" s="3"/>
       <c r="D67" s="3"/>
     </row>
     <row r="68">
       <c r="A68" s="2" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="C68" s="3"/>
       <c r="D68" s="3"/>
     </row>
     <row r="69">
       <c r="A69" s="2" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
     </row>
     <row r="70">
       <c r="A70" s="2" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" s="3"/>
     </row>
     <row r="71">
       <c r="A71" s="2" t="s">
+        <v>1279</v>
+      </c>
+      <c r="B71" s="2" t="s">
         <v>1281</v>
-      </c>
-      <c r="B71" s="2" t="s">
-        <v>1283</v>
       </c>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
     </row>
     <row r="72">
       <c r="A72" s="2" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
     </row>
     <row r="73">
       <c r="A73" s="2" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
     </row>
     <row r="74">
       <c r="A74" s="2" t="s">
+        <v>864</v>
+      </c>
+      <c r="B74" s="3" t="s">
         <v>865</v>
-      </c>
-      <c r="B74" s="3" t="s">
-        <v>866</v>
       </c>
       <c r="C74" s="3"/>
       <c r="D74" s="3"/>
     </row>
     <row r="75">
       <c r="A75" s="2" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="B75" s="2" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="C75" s="3"/>
       <c r="D75" s="3"/>
     </row>
     <row r="76">
       <c r="A76" s="2" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="C76" s="3"/>
       <c r="D76" s="3"/>
     </row>
     <row r="77">
       <c r="A77" s="2" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="B77" s="2" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="C77" s="3"/>
       <c r="D77" s="3"/>
     </row>
     <row r="78">
       <c r="A78" s="2" t="s">
+        <v>1288</v>
+      </c>
+      <c r="B78" s="3" t="s">
         <v>1290</v>
-      </c>
-      <c r="B78" s="3" t="s">
-        <v>1292</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" s="3"/>
     </row>
     <row r="79">
       <c r="A79" s="2" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="B79" s="9" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" s="3"/>
     </row>
     <row r="80">
       <c r="A80" s="2" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B80" s="2" t="s">
         <v>1293</v>
-      </c>
-      <c r="B80" s="2" t="s">
-        <v>1295</v>
       </c>
       <c r="C80" s="3"/>
       <c r="D80" s="3"/>
     </row>
     <row r="81">
       <c r="A81" s="2" t="s">
+        <v>1291</v>
+      </c>
+      <c r="B81" s="5" t="s">
         <v>1293</v>
-      </c>
-      <c r="B81" s="5" t="s">
-        <v>1295</v>
       </c>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
     </row>
     <row r="82">
       <c r="A82" s="2" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="C82" s="3"/>
       <c r="D82" s="3"/>
     </row>
     <row r="83">
       <c r="A83" s="2" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="C83" s="3"/>
       <c r="D83" s="3"/>
     </row>
     <row r="84">
       <c r="A84" s="2" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="B84" s="3" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="C84" s="3"/>
       <c r="D84" s="3"/>
     </row>
     <row r="85">
       <c r="A85" s="2" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="C85" s="3"/>
       <c r="D85" s="3"/>
     </row>
     <row r="86">
       <c r="A86" s="2" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
     </row>
     <row r="87">
       <c r="A87" s="2" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="C87" s="3"/>
       <c r="D87" s="3"/>
     </row>
     <row r="88">
       <c r="A88" s="5" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
     </row>
     <row r="89">
       <c r="A89" s="5" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="C89" s="3"/>
       <c r="D89" s="3"/>
     </row>
     <row r="90">
       <c r="A90" s="2" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="C90" s="3"/>
       <c r="D90" s="3"/>
     </row>
     <row r="91">
       <c r="A91" s="2" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="C91" s="3"/>
       <c r="D91" s="3"/>
     </row>
     <row r="92">
       <c r="A92" s="2" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="C92" s="3"/>
       <c r="D92" s="3"/>
     </row>
     <row r="93">
       <c r="A93" s="2" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="3"/>
     </row>
     <row r="94">
       <c r="A94" s="2" t="s">
+        <v>1310</v>
+      </c>
+      <c r="B94" s="2" t="s">
         <v>1312</v>
-      </c>
-      <c r="B94" s="2" t="s">
-        <v>1314</v>
       </c>
       <c r="C94" s="3"/>
       <c r="D94" s="3"/>
     </row>
     <row r="95">
       <c r="A95" s="2" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>92</v>
@@ -12830,70 +12818,70 @@
     </row>
     <row r="96">
       <c r="A96" s="2" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="C96" s="3"/>
       <c r="D96" s="3"/>
     </row>
     <row r="97">
       <c r="A97" s="2" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="C97" s="3"/>
       <c r="D97" s="3"/>
     </row>
     <row r="98">
       <c r="A98" s="2" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="B98" s="3" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="C98" s="3"/>
       <c r="D98" s="3"/>
     </row>
     <row r="99">
       <c r="A99" s="2" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="C99" s="3"/>
       <c r="D99" s="3"/>
     </row>
     <row r="100">
       <c r="A100" s="2" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="C100" s="3"/>
       <c r="D100" s="3"/>
     </row>
     <row r="101">
       <c r="A101" s="2" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="C101" s="3"/>
       <c r="D101" s="3"/>
     </row>
     <row r="102">
       <c r="A102" s="2" t="s">
+        <v>1321</v>
+      </c>
+      <c r="B102" s="3" t="s">
         <v>1323</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>1325</v>
       </c>
       <c r="C102" s="2"/>
       <c r="D102" s="3"/>
@@ -12923,594 +12911,641 @@
         <v>22</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
     </row>
     <row r="106">
       <c r="A106" s="5" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="C106" s="3"/>
       <c r="D106" s="3"/>
     </row>
     <row r="107">
       <c r="A107" s="5" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="C107" s="3"/>
       <c r="D107" s="3"/>
     </row>
     <row r="108">
       <c r="A108" s="2" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="C108" s="3"/>
       <c r="D108" s="3"/>
     </row>
     <row r="109">
       <c r="A109" s="5" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="C109" s="3"/>
       <c r="D109" s="3"/>
     </row>
     <row r="110">
       <c r="A110" s="2" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B110" s="2" t="s">
         <v>1055</v>
-      </c>
-      <c r="B110" s="2" t="s">
-        <v>1056</v>
       </c>
       <c r="C110" s="3"/>
       <c r="D110" s="3"/>
     </row>
     <row r="111">
       <c r="A111" s="2" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="C111" s="2"/>
       <c r="D111" s="3"/>
     </row>
     <row r="112">
       <c r="A112" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B112" s="2" t="s">
         <v>1333</v>
-      </c>
-      <c r="B112" s="2" t="s">
-        <v>1335</v>
       </c>
       <c r="C112" s="3"/>
       <c r="D112" s="3"/>
     </row>
     <row r="113">
       <c r="A113" s="2" t="s">
+        <v>1331</v>
+      </c>
+      <c r="B113" s="3" t="s">
         <v>1333</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>1335</v>
       </c>
       <c r="C113" s="3"/>
       <c r="D113" s="3"/>
     </row>
     <row r="114">
       <c r="A114" s="2" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="C114" s="3"/>
       <c r="D114" s="3"/>
     </row>
     <row r="115">
       <c r="A115" s="2" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="C115" s="3"/>
       <c r="D115" s="3"/>
     </row>
     <row r="116">
       <c r="A116" s="2" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="C116" s="3"/>
       <c r="D116" s="3"/>
     </row>
     <row r="117">
       <c r="A117" s="2" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
     </row>
     <row r="118">
       <c r="A118" s="2" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="C118" s="3"/>
       <c r="D118" s="3"/>
     </row>
     <row r="119">
       <c r="A119" s="2" t="s">
+        <v>1342</v>
+      </c>
+      <c r="B119" s="3" t="s">
         <v>1344</v>
-      </c>
-      <c r="B119" s="3" t="s">
-        <v>1346</v>
       </c>
       <c r="C119" s="3"/>
       <c r="D119" s="3"/>
     </row>
     <row r="120">
       <c r="A120" s="2" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="C120" s="3"/>
       <c r="D120" s="3"/>
     </row>
     <row r="121">
       <c r="A121" s="2" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="C121" s="3"/>
       <c r="D121" s="3"/>
     </row>
     <row r="122">
       <c r="A122" s="2" t="s">
-        <v>1349</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>1351</v>
+        <v>1347</v>
+      </c>
+      <c r="B122" s="7" t="s">
+        <v>802</v>
       </c>
       <c r="C122" s="3"/>
       <c r="D122" s="3"/>
     </row>
     <row r="123">
       <c r="A123" s="2" t="s">
-        <v>1352</v>
-      </c>
-      <c r="B123" s="2" t="s">
-        <v>1353</v>
+        <v>1347</v>
+      </c>
+      <c r="B123" s="7" t="s">
+        <v>1349</v>
       </c>
       <c r="C123" s="3"/>
       <c r="D123" s="3"/>
     </row>
     <row r="124">
       <c r="A124" s="2" t="s">
-        <v>1352</v>
-      </c>
-      <c r="B124" s="3" t="s">
-        <v>1354</v>
+        <v>1350</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>1351</v>
       </c>
       <c r="C124" s="3"/>
       <c r="D124" s="3"/>
     </row>
     <row r="125">
       <c r="A125" s="2" t="s">
-        <v>1355</v>
-      </c>
-      <c r="B125" s="2" t="s">
-        <v>1356</v>
+        <v>1350</v>
+      </c>
+      <c r="B125" s="7" t="s">
+        <v>1193</v>
       </c>
       <c r="C125" s="3"/>
       <c r="D125" s="3"/>
     </row>
     <row r="126">
       <c r="A126" s="2" t="s">
-        <v>1357</v>
-      </c>
-      <c r="B126" s="2" t="s">
-        <v>1358</v>
+        <v>1350</v>
+      </c>
+      <c r="B126" s="7" t="s">
+        <v>1352</v>
       </c>
       <c r="C126" s="3"/>
       <c r="D126" s="3"/>
     </row>
     <row r="127">
       <c r="A127" s="2" t="s">
-        <v>1357</v>
-      </c>
-      <c r="B127" s="3" t="s">
-        <v>1351</v>
+        <v>1353</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>1354</v>
       </c>
       <c r="C127" s="3"/>
       <c r="D127" s="3"/>
     </row>
     <row r="128">
       <c r="A128" s="2" t="s">
-        <v>1359</v>
+        <v>1355</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>1360</v>
+        <v>1356</v>
       </c>
       <c r="C128" s="3"/>
       <c r="D128" s="3"/>
     </row>
     <row r="129">
       <c r="A129" s="2" t="s">
-        <v>1361</v>
-      </c>
-      <c r="B129" s="2" t="s">
-        <v>1362</v>
+        <v>1355</v>
+      </c>
+      <c r="B129" s="7" t="s">
+        <v>802</v>
       </c>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
     </row>
     <row r="130">
       <c r="A130" s="2" t="s">
-        <v>1363</v>
-      </c>
-      <c r="B130" s="2" t="s">
-        <v>1364</v>
+        <v>1355</v>
+      </c>
+      <c r="B130" s="7" t="s">
+        <v>1349</v>
       </c>
       <c r="C130" s="3"/>
       <c r="D130" s="3"/>
     </row>
     <row r="131">
       <c r="A131" s="2" t="s">
-        <v>1363</v>
-      </c>
-      <c r="B131" s="3" t="s">
-        <v>1365</v>
+        <v>1357</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>1358</v>
       </c>
       <c r="C131" s="3"/>
       <c r="D131" s="3"/>
     </row>
     <row r="132">
       <c r="A132" s="2" t="s">
-        <v>1366</v>
+        <v>1359</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1367</v>
+        <v>1360</v>
       </c>
       <c r="C132" s="3"/>
       <c r="D132" s="3"/>
     </row>
     <row r="133">
       <c r="A133" s="2" t="s">
-        <v>1366</v>
-      </c>
-      <c r="B133" s="3" t="s">
-        <v>1343</v>
+        <v>1361</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>1362</v>
       </c>
       <c r="C133" s="3"/>
       <c r="D133" s="3"/>
     </row>
     <row r="134">
       <c r="A134" s="2" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B134" s="2" t="s">
-        <v>1369</v>
+        <v>1361</v>
+      </c>
+      <c r="B134" s="7" t="s">
+        <v>1363</v>
       </c>
       <c r="C134" s="3"/>
       <c r="D134" s="3"/>
     </row>
     <row r="135">
       <c r="A135" s="2" t="s">
-        <v>1368</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>1370</v>
+        <v>1361</v>
+      </c>
+      <c r="B135" s="7" t="s">
+        <v>1349</v>
       </c>
       <c r="C135" s="3"/>
       <c r="D135" s="3"/>
     </row>
     <row r="136">
       <c r="A136" s="2" t="s">
-        <v>1371</v>
+        <v>1364</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>1372</v>
+        <v>1365</v>
       </c>
       <c r="C136" s="3"/>
       <c r="D136" s="3"/>
     </row>
     <row r="137">
       <c r="A137" s="2" t="s">
-        <v>1371</v>
+        <v>1364</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>1373</v>
+        <v>1341</v>
       </c>
       <c r="C137" s="3"/>
       <c r="D137" s="3"/>
     </row>
     <row r="138">
       <c r="A138" s="2" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>1375</v>
+        <v>1367</v>
       </c>
       <c r="C138" s="3"/>
       <c r="D138" s="3"/>
     </row>
     <row r="139">
       <c r="A139" s="2" t="s">
-        <v>1374</v>
+        <v>1366</v>
       </c>
       <c r="B139" s="3" t="s">
-        <v>1376</v>
+        <v>1368</v>
       </c>
       <c r="C139" s="3"/>
       <c r="D139" s="3"/>
     </row>
     <row r="140">
       <c r="A140" s="2" t="s">
-        <v>1377</v>
+        <v>1369</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>1378</v>
+        <v>1370</v>
       </c>
       <c r="C140" s="3"/>
       <c r="D140" s="3"/>
     </row>
     <row r="141">
       <c r="A141" s="2" t="s">
-        <v>1377</v>
+        <v>1369</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>1379</v>
+        <v>1371</v>
       </c>
       <c r="C141" s="3"/>
       <c r="D141" s="3"/>
     </row>
     <row r="142">
       <c r="A142" s="2" t="s">
-        <v>1380</v>
-      </c>
-      <c r="B142" s="5" t="s">
-        <v>1381</v>
+        <v>1372</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>1373</v>
       </c>
       <c r="C142" s="3"/>
       <c r="D142" s="3"/>
     </row>
     <row r="143">
       <c r="A143" s="2" t="s">
-        <v>1382</v>
-      </c>
-      <c r="B143" s="2" t="s">
-        <v>1383</v>
+        <v>1372</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>1374</v>
       </c>
       <c r="C143" s="3"/>
       <c r="D143" s="3"/>
     </row>
     <row r="144">
       <c r="A144" s="2" t="s">
-        <v>1384</v>
+        <v>1375</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>1385</v>
+        <v>1376</v>
       </c>
       <c r="C144" s="3"/>
       <c r="D144" s="3"/>
     </row>
     <row r="145">
       <c r="A145" s="2" t="s">
-        <v>1384</v>
+        <v>1375</v>
       </c>
       <c r="B145" s="3" t="s">
-        <v>1373</v>
+        <v>1377</v>
       </c>
       <c r="C145" s="3"/>
       <c r="D145" s="3"/>
     </row>
     <row r="146">
       <c r="A146" s="2" t="s">
-        <v>1386</v>
-      </c>
-      <c r="B146" s="2" t="s">
-        <v>1387</v>
+        <v>1378</v>
+      </c>
+      <c r="B146" s="5" t="s">
+        <v>1379</v>
       </c>
       <c r="C146" s="3"/>
-      <c r="D146" s="7" t="s">
-        <v>817</v>
-      </c>
+      <c r="D146" s="3"/>
     </row>
     <row r="147">
       <c r="A147" s="2" t="s">
-        <v>1386</v>
-      </c>
-      <c r="B147" s="5" t="s">
-        <v>1388</v>
+        <v>1380</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>1381</v>
       </c>
       <c r="C147" s="3"/>
       <c r="D147" s="3"/>
     </row>
     <row r="148">
       <c r="A148" s="2" t="s">
-        <v>1386</v>
-      </c>
-      <c r="B148" s="5" t="s">
-        <v>1389</v>
+        <v>1382</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>1383</v>
       </c>
       <c r="C148" s="3"/>
       <c r="D148" s="3"/>
     </row>
     <row r="149">
       <c r="A149" s="2" t="s">
-        <v>1390</v>
-      </c>
-      <c r="B149" s="2" t="s">
-        <v>1391</v>
+        <v>1382</v>
+      </c>
+      <c r="B149" s="3" t="s">
+        <v>1371</v>
       </c>
       <c r="C149" s="3"/>
       <c r="D149" s="3"/>
     </row>
     <row r="150">
       <c r="A150" s="2" t="s">
-        <v>1390</v>
-      </c>
-      <c r="B150" s="3" t="s">
-        <v>1392</v>
+        <v>1384</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>1385</v>
       </c>
       <c r="C150" s="3"/>
-      <c r="D150" s="3"/>
-      <c r="E150" s="1" t="s">
-        <v>1393</v>
+      <c r="D150" s="7" t="s">
+        <v>816</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="s">
-        <v>1394</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>1395</v>
+        <v>1384</v>
+      </c>
+      <c r="B151" s="5" t="s">
+        <v>1386</v>
       </c>
       <c r="C151" s="3"/>
       <c r="D151" s="3"/>
     </row>
     <row r="152">
       <c r="A152" s="2" t="s">
-        <v>1396</v>
-      </c>
-      <c r="B152" s="2" t="s">
-        <v>1054</v>
+        <v>1384</v>
+      </c>
+      <c r="B152" s="5" t="s">
+        <v>1387</v>
       </c>
       <c r="C152" s="3"/>
       <c r="D152" s="3"/>
     </row>
     <row r="153">
       <c r="A153" s="2" t="s">
-        <v>1397</v>
+        <v>1388</v>
       </c>
       <c r="B153" s="2" t="s">
-        <v>1398</v>
+        <v>1389</v>
       </c>
       <c r="C153" s="3"/>
       <c r="D153" s="3"/>
     </row>
     <row r="154">
       <c r="A154" s="2" t="s">
-        <v>1397</v>
-      </c>
-      <c r="B154" s="3" t="s">
-        <v>1399</v>
+        <v>1388</v>
+      </c>
+      <c r="B154" s="7" t="s">
+        <v>1390</v>
       </c>
       <c r="C154" s="3"/>
       <c r="D154" s="3"/>
     </row>
     <row r="155">
-      <c r="A155" s="5" t="s">
-        <v>1400</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>1401</v>
+      <c r="A155" s="2" t="s">
+        <v>1388</v>
+      </c>
+      <c r="B155" s="7" t="s">
+        <v>1391</v>
       </c>
       <c r="C155" s="3"/>
       <c r="D155" s="3"/>
     </row>
     <row r="156">
       <c r="A156" s="2" t="s">
-        <v>1402</v>
+        <v>1392</v>
       </c>
       <c r="B156" s="2" t="s">
-        <v>1403</v>
+        <v>1393</v>
       </c>
       <c r="C156" s="3"/>
       <c r="D156" s="3"/>
     </row>
     <row r="157">
       <c r="A157" s="2" t="s">
-        <v>1404</v>
+        <v>1394</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>170</v>
+        <v>1053</v>
       </c>
       <c r="C157" s="3"/>
       <c r="D157" s="3"/>
     </row>
     <row r="158">
       <c r="A158" s="2" t="s">
-        <v>310</v>
+        <v>1395</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>311</v>
+        <v>1396</v>
       </c>
       <c r="C158" s="3"/>
       <c r="D158" s="3"/>
     </row>
     <row r="159">
       <c r="A159" s="2" t="s">
-        <v>1405</v>
-      </c>
-      <c r="B159" s="2" t="s">
-        <v>1406</v>
+        <v>1395</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>1397</v>
       </c>
       <c r="C159" s="3"/>
       <c r="D159" s="3"/>
     </row>
     <row r="160">
-      <c r="A160" s="2" t="s">
-        <v>711</v>
+      <c r="A160" s="5" t="s">
+        <v>1398</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>712</v>
+        <v>1399</v>
       </c>
       <c r="C160" s="3"/>
       <c r="D160" s="3"/>
     </row>
     <row r="161">
       <c r="A161" s="2" t="s">
-        <v>1407</v>
+        <v>1400</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>1408</v>
+        <v>1401</v>
       </c>
       <c r="C161" s="3"/>
       <c r="D161" s="3"/>
     </row>
     <row r="162">
       <c r="A162" s="2" t="s">
-        <v>1407</v>
-      </c>
-      <c r="B162" s="7" t="s">
-        <v>343</v>
-      </c>
+        <v>1402</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
     </row>
     <row r="163">
       <c r="A163" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C163" s="3"/>
+      <c r="D163" s="3"/>
+    </row>
+    <row r="164">
+      <c r="A164" s="2" t="s">
+        <v>1403</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>1404</v>
+      </c>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+    </row>
+    <row r="165">
+      <c r="A165" s="2" t="s">
+        <v>710</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>711</v>
+      </c>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
+    </row>
+    <row r="166">
+      <c r="A166" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>1406</v>
+      </c>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+    </row>
+    <row r="167">
+      <c r="A167" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="2" t="s">
+        <v>1405</v>
+      </c>
+      <c r="B168" s="1" t="s">
         <v>1407</v>
       </c>
-      <c r="B163" s="1" t="s">
-        <v>1409</v>
-      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:D213">
+  <conditionalFormatting sqref="A1:D218">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>COUNTIF(A:D, A1) &gt; 1</formula>
     </cfRule>
